--- a/data/trans_orig/iP30A6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP30A6_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8582643A-31DE-443E-8431-BD65B2B4F108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D4FB2D8-11B7-457C-A416-EF07CDA5EE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{892B0192-8979-4EED-BB4F-20B9B245FFA1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CEC8E293-FCFA-4979-A666-5B0E51976DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
   <si>
     <t>Menores según si acuden una vez o más a la semana a un centro de comida rápida en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -101,55 +101,55 @@
     <t>46,18%</t>
   </si>
   <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
   </si>
   <si>
     <t>44,0%</t>
   </si>
   <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
   </si>
   <si>
     <t>45,15%</t>
   </si>
   <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
   </si>
   <si>
     <t>53,82%</t>
   </si>
   <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
   </si>
   <si>
     <t>56,0%</t>
   </si>
   <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
   </si>
   <si>
     <t>54,85%</t>
   </si>
   <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -158,55 +158,55 @@
     <t>38,96%</t>
   </si>
   <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
   </si>
   <si>
     <t>33,9%</t>
   </si>
   <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
   </si>
   <si>
     <t>36,54%</t>
   </si>
   <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
   </si>
   <si>
     <t>61,04%</t>
   </si>
   <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
   </si>
   <si>
     <t>66,1%</t>
   </si>
   <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
   </si>
   <si>
     <t>63,46%</t>
   </si>
   <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -215,109 +215,103 @@
     <t>33,19%</t>
   </si>
   <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
   </si>
   <si>
     <t>32,46%</t>
   </si>
   <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
   </si>
   <si>
     <t>66,81%</t>
   </si>
   <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
   </si>
   <si>
     <t>67,54%</t>
   </si>
   <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
   </si>
   <si>
     <t>38,12%</t>
   </si>
   <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
   </si>
   <si>
     <t>34,1%</t>
   </si>
   <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
   </si>
   <si>
     <t>36,21%</t>
   </si>
   <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
+    <t>33,75%</t>
   </si>
   <si>
     <t>61,88%</t>
   </si>
   <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
   </si>
   <si>
     <t>65,9%</t>
   </si>
   <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
   </si>
   <si>
     <t>63,79%</t>
   </si>
   <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
+    <t>66,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -732,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD130468-97BD-4C92-A897-8AA24A1B7A2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2B91AA-60DB-4667-9603-20BEB677BE90}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1002,7 +996,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>25638</v>
+        <v>25637</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -1104,7 +1098,7 @@
         <v>77</v>
       </c>
       <c r="D9" s="7">
-        <v>55514</v>
+        <v>55513</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>18</v>
@@ -1506,7 +1500,7 @@
         <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1521,13 +1515,13 @@
         <v>438936</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>625</v>
@@ -1536,13 +1530,13 @@
         <v>422179</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>1233</v>
@@ -1551,13 +1545,13 @@
         <v>861115</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,7 +1607,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP30A6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP30A6_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D4FB2D8-11B7-457C-A416-EF07CDA5EE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C801C49-C153-412B-BBD0-0C2F1B8530F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CEC8E293-FCFA-4979-A666-5B0E51976DB8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BA1F7BFA-FB5F-426A-A2BC-426407B0BAC3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Menores según si acuden una vez o más a la semana a un centro de comida rápida en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,253 +65,238 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -726,8 +711,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2B91AA-60DB-4667-9603-20BEB677BE90}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620F4144-4061-4374-8A92-4588115A272D}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -844,96 +829,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D4" s="7">
+        <v>21433</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>26336</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>47769</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="D5" s="7">
+        <v>32266</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>32009</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>64274</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -942,151 +931,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53699</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>58345</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>112043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>200</v>
+      </c>
+      <c r="D7" s="7">
+        <v>163305</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7">
-        <v>25637</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="I7" s="7">
-        <v>22067</v>
+        <v>197538</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>58</v>
+        <v>421</v>
       </c>
       <c r="N7" s="7">
-        <v>47704</v>
+        <v>360843</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>425</v>
+      </c>
+      <c r="D8" s="7">
+        <v>288527</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
+        <v>409</v>
+      </c>
+      <c r="I8" s="7">
+        <v>307712</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="7">
-        <v>29876</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="7">
-        <v>42</v>
-      </c>
-      <c r="I8" s="7">
-        <v>28087</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>86</v>
+        <v>834</v>
       </c>
       <c r="N8" s="7">
-        <v>57963</v>
+        <v>596239</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1095,153 +1086,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>77</v>
+        <v>625</v>
       </c>
       <c r="D9" s="7">
-        <v>55513</v>
+        <v>451832</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>630</v>
       </c>
       <c r="I9" s="7">
-        <v>50154</v>
+        <v>505250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>144</v>
+        <v>1255</v>
       </c>
       <c r="N9" s="7">
-        <v>105667</v>
+        <v>957082</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7">
-        <v>187515</v>
+        <v>45392</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="I10" s="7">
-        <v>149563</v>
+        <v>60460</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>421</v>
+        <v>143</v>
       </c>
       <c r="N10" s="7">
-        <v>337078</v>
+        <v>105852</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>409</v>
+        <v>157</v>
       </c>
       <c r="D11" s="7">
-        <v>293811</v>
+        <v>100794</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>425</v>
+        <v>155</v>
       </c>
       <c r="I11" s="7">
-        <v>291691</v>
+        <v>120679</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>834</v>
+        <v>312</v>
       </c>
       <c r="N11" s="7">
-        <v>585502</v>
+        <v>221472</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1250,153 +1241,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>630</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>481326</v>
+        <v>146186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>625</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>441254</v>
+        <v>181139</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1255</v>
+        <v>455</v>
       </c>
       <c r="N12" s="7">
-        <v>922580</v>
+        <v>327324</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="D13" s="7">
-        <v>57245</v>
+        <v>230130</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>65</v>
+        <v>332</v>
       </c>
       <c r="I13" s="7">
-        <v>46799</v>
+        <v>284334</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>143</v>
+        <v>622</v>
       </c>
       <c r="N13" s="7">
-        <v>104044</v>
+        <v>514464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>155</v>
+        <v>624</v>
       </c>
       <c r="D14" s="7">
-        <v>115249</v>
+        <v>421587</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>157</v>
+        <v>608</v>
       </c>
       <c r="I14" s="7">
-        <v>101231</v>
+        <v>460399</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>312</v>
+        <v>1232</v>
       </c>
       <c r="N14" s="7">
-        <v>216480</v>
+        <v>881986</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,216 +1396,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>233</v>
+        <v>914</v>
       </c>
       <c r="D15" s="7">
-        <v>172494</v>
+        <v>651717</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>222</v>
+        <v>940</v>
       </c>
       <c r="I15" s="7">
-        <v>148030</v>
+        <v>744733</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>455</v>
+        <v>1854</v>
       </c>
       <c r="N15" s="7">
-        <v>320524</v>
+        <v>1396450</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>332</v>
-      </c>
-      <c r="D16" s="7">
-        <v>270397</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>290</v>
-      </c>
-      <c r="I16" s="7">
-        <v>218430</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>622</v>
-      </c>
-      <c r="N16" s="7">
-        <v>488827</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>608</v>
-      </c>
-      <c r="D17" s="7">
-        <v>438936</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="7">
-        <v>625</v>
-      </c>
-      <c r="I17" s="7">
-        <v>422179</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1233</v>
-      </c>
-      <c r="N17" s="7">
-        <v>861115</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>940</v>
-      </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
-      <c r="I18" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
